--- a/scripts/data_analysis/analysis.xlsx
+++ b/scripts/data_analysis/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SXALNHO/nn-art-epoch-assignment/scripts/data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32419EFB-A880-4C4D-A738-7A43E9D2FBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A3577-96B3-8F4A-876E-245F852B8069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16171,8 +16171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="R24" zoomScale="156" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
